--- a/database/_legacy-data/seasons.xlsx
+++ b/database/_legacy-data/seasons.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="17070" windowHeight="9150" xr2:uid="{A8A564BB-3428-4452-84FB-4B580ABAE25D}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="17070" windowHeight="9150" xr2:uid="{A8A564BB-3428-4452-84FB-4B580ABAE25D}"/>
   </bookViews>
   <sheets>
     <sheet name="league seasons" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>updated_at</t>
+  </si>
+  <si>
+    <t>Die Plätze 11 und 12 steigen in die 2. Liga ab. Platz 10 spielt ein Relegationsspiel gegen Platz 3 der 2. Liga.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s">
         <v>33</v>

--- a/database/_legacy-data/seasons.xlsx
+++ b/database/_legacy-data/seasons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="17070" windowHeight="9150" xr2:uid="{A8A564BB-3428-4452-84FB-4B580ABAE25D}"/>
+    <workbookView xWindow="5745" yWindow="0" windowWidth="17070" windowHeight="9150" xr2:uid="{A8A564BB-3428-4452-84FB-4B580ABAE25D}"/>
   </bookViews>
   <sheets>
     <sheet name="league seasons" sheetId="1" r:id="rId1"/>
@@ -192,6 +192,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -208,10 +276,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="C0C0C0"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="242424"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -503,10 +571,10 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +698,7 @@
         <v>33</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -680,7 +748,7 @@
         <v>33</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -730,7 +798,7 @@
         <v>33</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -780,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -830,7 +898,7 @@
         <v>33</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -880,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -930,7 +998,7 @@
         <v>33</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -980,7 +1048,7 @@
         <v>33</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1030,7 +1098,7 @@
         <v>33</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1080,7 +1148,7 @@
         <v>33</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1130,7 +1198,7 @@
         <v>33</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1180,7 +1248,7 @@
         <v>33</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1230,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1280,7 +1348,7 @@
         <v>33</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1330,7 +1398,7 @@
         <v>33</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -2080,7 +2148,7 @@
         <v>33</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -2130,7 +2198,7 @@
         <v>33</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2180,7 +2248,7 @@
         <v>33</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -2230,7 +2298,7 @@
         <v>33</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2280,7 +2348,7 @@
         <v>33</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2330,7 +2398,7 @@
         <v>33</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2380,7 +2448,7 @@
         <v>33</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -2430,7 +2498,7 @@
         <v>33</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2480,7 +2548,7 @@
         <v>33</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2530,7 +2598,7 @@
         <v>33</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">

--- a/database/_legacy-data/seasons.xlsx
+++ b/database/_legacy-data/seasons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="0" windowWidth="17070" windowHeight="9150" xr2:uid="{A8A564BB-3428-4452-84FB-4B580ABAE25D}"/>
+    <workbookView xWindow="8175" yWindow="0" windowWidth="17070" windowHeight="9150" xr2:uid="{A8A564BB-3428-4452-84FB-4B580ABAE25D}"/>
   </bookViews>
   <sheets>
     <sheet name="league seasons" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -136,13 +136,23 @@
   <si>
     <t>Die Plätze 11 und 12 steigen in die 2. Liga ab. Platz 10 spielt ein Relegationsspiel gegen Platz 3 der 2. Liga.</t>
   </si>
+  <si>
+    <t>Pokalsieger dieser Saison nicht bekannt.</t>
+  </si>
+  <si>
+    <t>Pokal der 1. Liga</t>
+  </si>
+  <si>
+    <t>Pokal der 2. Liga</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -173,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -186,80 +196,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -276,10 +219,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="C0C0C0"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="242424"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -568,18 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A204C951-5CB1-4CEB-B6F2-1D8CAECB1695}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
+      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
@@ -593,6 +536,7 @@
     <col min="14" max="14" width="29.140625" style="4" customWidth="1"/>
     <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -700,6 +644,14 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2" s="6">
+        <f ca="1">NOW()</f>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R2" s="6">
+        <f ca="1">NOW()</f>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -750,6 +702,14 @@
       <c r="P3">
         <v>0</v>
       </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:R45" ca="1" si="0">NOW()</f>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -800,6 +760,14 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -850,6 +818,14 @@
       <c r="P5">
         <v>0</v>
       </c>
+      <c r="Q5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -900,6 +876,14 @@
       <c r="P6">
         <v>0</v>
       </c>
+      <c r="Q6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -950,6 +934,14 @@
       <c r="P7">
         <v>0</v>
       </c>
+      <c r="Q7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1000,6 +992,14 @@
       <c r="P8">
         <v>0</v>
       </c>
+      <c r="Q8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1050,6 +1050,14 @@
       <c r="P9">
         <v>0</v>
       </c>
+      <c r="Q9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1100,6 +1108,14 @@
       <c r="P10">
         <v>0</v>
       </c>
+      <c r="Q10" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1150,6 +1166,14 @@
       <c r="P11">
         <v>0</v>
       </c>
+      <c r="Q11" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1200,6 +1224,14 @@
       <c r="P12">
         <v>0</v>
       </c>
+      <c r="Q12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1250,6 +1282,14 @@
       <c r="P13">
         <v>0</v>
       </c>
+      <c r="Q13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1300,6 +1340,14 @@
       <c r="P14">
         <v>0</v>
       </c>
+      <c r="Q14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1350,6 +1398,14 @@
       <c r="P15">
         <v>0</v>
       </c>
+      <c r="Q15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1400,8 +1456,16 @@
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q16" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1450,8 +1514,16 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1500,8 +1572,16 @@
       <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q18" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1550,8 +1630,16 @@
       <c r="P19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q19" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1600,8 +1688,16 @@
       <c r="P20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="Q20" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1650,8 +1746,16 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1700,8 +1804,16 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>38</v>
       </c>
@@ -1750,8 +1862,16 @@
       <c r="P23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q23" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1800,8 +1920,16 @@
       <c r="P24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q24" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1850,8 +1978,16 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q25" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1900,8 +2036,16 @@
       <c r="P26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="Q26" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1950,8 +2094,16 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2000,8 +2152,16 @@
       <c r="P28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>39</v>
       </c>
@@ -2050,8 +2210,16 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42</v>
       </c>
@@ -2100,8 +2268,16 @@
       <c r="P30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -2150,8 +2326,16 @@
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>36</v>
       </c>
@@ -2200,8 +2384,16 @@
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
@@ -2250,8 +2442,16 @@
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2300,8 +2500,16 @@
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2350,8 +2558,16 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -2400,8 +2616,16 @@
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
@@ -2450,8 +2674,16 @@
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -2500,8 +2732,16 @@
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>29</v>
       </c>
@@ -2550,8 +2790,16 @@
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>28</v>
       </c>
@@ -2600,8 +2848,16 @@
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
@@ -2650,8 +2906,16 @@
       <c r="P41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R41" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>27</v>
       </c>
@@ -2700,8 +2964,16 @@
       <c r="P42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R42" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2750,8 +3022,16 @@
       <c r="P43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R43" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2799,6 +3079,1406 @@
       </c>
       <c r="P44">
         <v>1</v>
+      </c>
+      <c r="Q44" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R44" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>34700</v>
+      </c>
+      <c r="D45" s="1">
+        <v>35064</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R45" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>35065</v>
+      </c>
+      <c r="D46" s="1">
+        <v>35430</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="6">
+        <f t="shared" ref="Q46:R68" ca="1" si="1">NOW()</f>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R46" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>35431</v>
+      </c>
+      <c r="D47" s="1">
+        <v>35795</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R47" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>35796</v>
+      </c>
+      <c r="D48" s="1">
+        <v>36160</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R48" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>36161</v>
+      </c>
+      <c r="D49" s="1">
+        <v>36525</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R49" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>36526</v>
+      </c>
+      <c r="D50" s="1">
+        <v>36891</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R50" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>36892</v>
+      </c>
+      <c r="D51" s="1">
+        <v>37256</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R51" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>37257</v>
+      </c>
+      <c r="D52" s="1">
+        <v>37621</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R52" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>37622</v>
+      </c>
+      <c r="D53" s="1">
+        <v>37986</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R53" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>37987</v>
+      </c>
+      <c r="D54" s="1">
+        <v>38352</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R54" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>38353</v>
+      </c>
+      <c r="D55" s="1">
+        <v>38717</v>
+      </c>
+      <c r="E55">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R55" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>38718</v>
+      </c>
+      <c r="D56" s="1">
+        <v>39082</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O56" t="s">
+        <v>33</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R56" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>39083</v>
+      </c>
+      <c r="D57" s="1">
+        <v>39447</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" t="s">
+        <v>33</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R57" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>39448</v>
+      </c>
+      <c r="D58" s="1">
+        <v>39813</v>
+      </c>
+      <c r="E58">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R58" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>39814</v>
+      </c>
+      <c r="D59" s="1">
+        <v>40178</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R59" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>40179</v>
+      </c>
+      <c r="D60" s="1">
+        <v>40543</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R60" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D61" s="1">
+        <v>40908</v>
+      </c>
+      <c r="E61">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R61" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D62" s="1">
+        <v>41274</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" t="s">
+        <v>38</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R62" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D63" s="1">
+        <v>41274</v>
+      </c>
+      <c r="E63">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" t="s">
+        <v>39</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R63" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>41275</v>
+      </c>
+      <c r="D64" s="1">
+        <v>41639</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O64" t="s">
+        <v>33</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R64" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>41640</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42004</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O65" t="s">
+        <v>33</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R65" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>42005</v>
+      </c>
+      <c r="D66" s="1">
+        <v>42369</v>
+      </c>
+      <c r="E66">
+        <v>22</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O66" t="s">
+        <v>33</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R66" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D67" s="1">
+        <v>42735</v>
+      </c>
+      <c r="E67">
+        <v>23</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O67" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R67" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E68">
+        <v>24</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" t="s">
+        <v>33</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" t="s">
+        <v>33</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
+      </c>
+      <c r="R68" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43071.643110763885</v>
       </c>
     </row>
   </sheetData>

--- a/database/_legacy-data/seasons.xlsx
+++ b/database/_legacy-data/seasons.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="0" windowWidth="17070" windowHeight="9150" xr2:uid="{A8A564BB-3428-4452-84FB-4B580ABAE25D}"/>
+    <workbookView xWindow="9315" yWindow="0" windowWidth="17070" windowHeight="9150" xr2:uid="{A8A564BB-3428-4452-84FB-4B580ABAE25D}"/>
   </bookViews>
   <sheets>
     <sheet name="league seasons" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'league seasons'!$A$1:$R$72</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -144,6 +147,9 @@
   </si>
   <si>
     <t>Pokal der 2. Liga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Plätze 11 und 12 steigen in die 2. Liga ab. </t>
   </si>
 </sst>
 </file>
@@ -511,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A204C951-5CB1-4CEB-B6F2-1D8CAECB1695}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,107 +601,107 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>34700</v>
+        <v>40909</v>
       </c>
       <c r="D2" s="1">
-        <v>35064</v>
+        <v>41274</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R2" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41274</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <f ca="1">NOW()</f>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R2" s="6">
-        <f ca="1">NOW()</f>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>35065</v>
-      </c>
-      <c r="D3" s="1">
-        <v>35430</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
       <c r="O3" t="s">
         <v>33</v>
       </c>
@@ -703,35 +709,35 @@
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" ref="Q3:R45" ca="1" si="0">NOW()</f>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40908</v>
+      </c>
+      <c r="E4">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>35431</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35795</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -751,7 +757,7 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="O4" t="s">
@@ -761,32 +767,32 @@
         <v>0</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40179</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40543</v>
+      </c>
+      <c r="E5">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>35796</v>
-      </c>
-      <c r="D5" s="1">
-        <v>36160</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
       <c r="F5">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -798,10 +804,10 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
         <v>33</v>
@@ -809,8 +815,8 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
-        <v>33</v>
+      <c r="N5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="O5" t="s">
         <v>33</v>
@@ -819,32 +825,32 @@
         <v>0</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39814</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40178</v>
+      </c>
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>36161</v>
-      </c>
-      <c r="D6" s="1">
-        <v>36525</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
       <c r="F6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -877,32 +883,32 @@
         <v>0</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>39448</v>
+      </c>
+      <c r="D7" s="1">
+        <v>39813</v>
+      </c>
+      <c r="E7">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>36526</v>
-      </c>
-      <c r="D7" s="1">
-        <v>36891</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
       <c r="F7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -935,32 +941,32 @@
         <v>0</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39083</v>
+      </c>
+      <c r="D8" s="1">
+        <v>39447</v>
+      </c>
+      <c r="E8">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>36892</v>
-      </c>
-      <c r="D8" s="1">
-        <v>37256</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
       <c r="F8">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -993,32 +999,32 @@
         <v>0</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>38718</v>
+      </c>
+      <c r="D9" s="1">
+        <v>39082</v>
+      </c>
+      <c r="E9">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>37257</v>
-      </c>
-      <c r="D9" s="1">
-        <v>37621</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
       <c r="F9">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1051,32 +1057,32 @@
         <v>0</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38353</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38717</v>
+      </c>
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>37622</v>
-      </c>
-      <c r="D10" s="1">
-        <v>37986</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
       <c r="F10">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -1109,12 +1115,12 @@
         <v>0</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1167,32 +1173,32 @@
         <v>0</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>37622</v>
+      </c>
+      <c r="D12" s="1">
+        <v>37986</v>
+      </c>
+      <c r="E12">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>38353</v>
-      </c>
-      <c r="D12" s="1">
-        <v>38717</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
       <c r="F12">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -1225,32 +1231,32 @@
         <v>0</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>37257</v>
+      </c>
+      <c r="D13" s="1">
+        <v>37621</v>
+      </c>
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>38718</v>
-      </c>
-      <c r="D13" s="1">
-        <v>39082</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
       <c r="F13">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1283,32 +1289,32 @@
         <v>0</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36892</v>
+      </c>
+      <c r="D14" s="1">
+        <v>37256</v>
+      </c>
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>39083</v>
-      </c>
-      <c r="D14" s="1">
-        <v>39447</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
       <c r="F14">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1341,32 +1347,32 @@
         <v>0</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>36526</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36891</v>
+      </c>
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>39448</v>
-      </c>
-      <c r="D15" s="1">
-        <v>39813</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
       <c r="F15">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1399,32 +1405,32 @@
         <v>0</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36161</v>
+      </c>
+      <c r="D16" s="1">
+        <v>36525</v>
+      </c>
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>39814</v>
-      </c>
-      <c r="D16" s="1">
-        <v>40178</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
       <c r="F16">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1457,32 +1463,32 @@
         <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35796</v>
+      </c>
+      <c r="D17" s="1">
+        <v>36160</v>
+      </c>
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>40179</v>
-      </c>
-      <c r="D17" s="1">
-        <v>40543</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
       <c r="F17">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -1494,10 +1500,10 @@
         <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
         <v>33</v>
@@ -1505,216 +1511,216 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>22</v>
+      <c r="N17" t="s">
+        <v>33</v>
       </c>
       <c r="O17" t="s">
         <v>33</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>35431</v>
+      </c>
+      <c r="D18" s="1">
+        <v>35795</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>40544</v>
-      </c>
-      <c r="D18" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
       <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R18" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>35065</v>
+      </c>
+      <c r="D19" s="1">
+        <v>35430</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R19" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>34700</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35064</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R20" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41275</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41639</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
         <v>7</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>40909</v>
-      </c>
-      <c r="D19" s="1">
-        <v>41274</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R19" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>41275</v>
-      </c>
-      <c r="D20" s="1">
-        <v>41639</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R20" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>41640</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42004</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1731,384 +1737,384 @@
       <c r="K21" t="s">
         <v>33</v>
       </c>
-      <c r="L21" t="s">
-        <v>33</v>
+      <c r="L21">
+        <v>10</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R21" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41275</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41639</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R22" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41640</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42004</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R21" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="O23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R23" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41640</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42004</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R24" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41640</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42004</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R25" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
         <v>42005</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D26" s="1">
         <v>42369</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>21</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22">
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26">
         <v>10</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>29</v>
       </c>
-      <c r="O22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R22" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>38</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>42370</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42735</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <v>47</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R23" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>41</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R24" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>40909</v>
-      </c>
-      <c r="D25" s="1">
-        <v>41274</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>41275</v>
-      </c>
-      <c r="D26" s="1">
-        <v>41639</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R26" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
-      </c>
-      <c r="O26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-      <c r="R26" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>41640</v>
+        <v>42005</v>
       </c>
       <c r="D27" s="1">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
-      <c r="F27">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" t="s">
-        <v>33</v>
-      </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>28</v>
+      <c r="N27" t="s">
+        <v>31</v>
       </c>
       <c r="O27" t="s">
         <v>33</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
         <v>42005</v>
@@ -2117,16 +2123,16 @@
         <v>42369</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>33</v>
@@ -2137,54 +2143,54 @@
       <c r="K28" t="s">
         <v>33</v>
       </c>
-      <c r="L28">
-        <v>3</v>
+      <c r="L28" t="s">
+        <v>33</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" t="s">
-        <v>31</v>
+      <c r="N28" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="O28" t="s">
         <v>33</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>42370</v>
+        <v>41275</v>
       </c>
       <c r="D29" s="1">
-        <v>42735</v>
+        <v>41639</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>33</v>
@@ -2201,48 +2207,48 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
-        <v>30</v>
+      <c r="N29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="O29" t="s">
         <v>33</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>42736</v>
+        <v>40909</v>
       </c>
       <c r="D30" s="1">
-        <v>43100</v>
+        <v>41274</v>
       </c>
       <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>61</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>33</v>
@@ -2253,11 +2259,11 @@
       <c r="K30" t="s">
         <v>33</v>
       </c>
-      <c r="L30">
-        <v>3</v>
+      <c r="L30" t="s">
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>33</v>
@@ -2266,35 +2272,35 @@
         <v>33</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>37987</v>
+        <v>40544</v>
       </c>
       <c r="D31" s="1">
-        <v>38352</v>
+        <v>40908</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2327,32 +2333,32 @@
         <v>0</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>38353</v>
+        <v>40179</v>
       </c>
       <c r="D32" s="1">
-        <v>38717</v>
+        <v>40543</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2385,32 +2391,32 @@
         <v>0</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>38718</v>
+        <v>39814</v>
       </c>
       <c r="D33" s="1">
-        <v>39082</v>
+        <v>40178</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2443,32 +2449,32 @@
         <v>0</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>39083</v>
+        <v>39448</v>
       </c>
       <c r="D34" s="1">
-        <v>39447</v>
+        <v>39813</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2501,32 +2507,32 @@
         <v>0</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>39448</v>
+        <v>39083</v>
       </c>
       <c r="D35" s="1">
-        <v>39813</v>
+        <v>39447</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2559,32 +2565,32 @@
         <v>0</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>39814</v>
+        <v>38718</v>
       </c>
       <c r="D36" s="1">
-        <v>40178</v>
+        <v>39082</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2617,32 +2623,32 @@
         <v>0</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="D37" s="1">
-        <v>40543</v>
+        <v>38717</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2675,32 +2681,32 @@
         <v>0</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>40544</v>
+        <v>37987</v>
       </c>
       <c r="D38" s="1">
-        <v>40908</v>
+        <v>38352</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2733,32 +2739,32 @@
         <v>0</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>40909</v>
+        <v>42370</v>
       </c>
       <c r="D39" s="1">
-        <v>41274</v>
+        <v>42735</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F39">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2766,8 +2772,8 @@
       <c r="H39" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>33</v>
+      <c r="I39" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J39" t="s">
         <v>33</v>
@@ -2781,8 +2787,8 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39" s="4" t="s">
-        <v>33</v>
+      <c r="N39" t="s">
+        <v>32</v>
       </c>
       <c r="O39" t="s">
         <v>33</v>
@@ -2791,38 +2797,38 @@
         <v>0</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>41275</v>
+        <v>42370</v>
       </c>
       <c r="D40" s="1">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>38</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>33</v>
@@ -2839,8 +2845,8 @@
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40" s="4" t="s">
-        <v>33</v>
+      <c r="N40" t="s">
+        <v>30</v>
       </c>
       <c r="O40" t="s">
         <v>33</v>
@@ -2849,32 +2855,32 @@
         <v>0</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>41640</v>
+        <v>42370</v>
       </c>
       <c r="D41" s="1">
-        <v>42004</v>
+        <v>42735</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F41">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2904,35 +2910,35 @@
         <v>33</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R41" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>42005</v>
+        <v>42736</v>
       </c>
       <c r="D42" s="1">
-        <v>42369</v>
+        <v>43100</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F42">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2940,8 +2946,8 @@
       <c r="H42" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>33</v>
+      <c r="I42" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J42" t="s">
         <v>33</v>
@@ -2949,54 +2955,54 @@
       <c r="K42" t="s">
         <v>33</v>
       </c>
-      <c r="L42" t="s">
-        <v>33</v>
+      <c r="L42">
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O42" t="s">
         <v>33</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R42" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="D43" s="1">
-        <v>42735</v>
+        <v>43100</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>71</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>33</v>
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>33</v>
@@ -3007,28 +3013,28 @@
       <c r="K43" t="s">
         <v>33</v>
       </c>
-      <c r="L43" t="s">
-        <v>33</v>
+      <c r="L43">
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>31</v>
       </c>
       <c r="O43" t="s">
         <v>33</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3047,8 +3053,8 @@
       <c r="E44">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
-        <v>33</v>
+      <c r="F44">
+        <v>58</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3078,15 +3084,15 @@
         <v>33</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R44" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3136,15 +3142,15 @@
         <v>33</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R45" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3194,15 +3200,15 @@
         <v>33</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="6">
-        <f t="shared" ref="Q46:R68" ca="1" si="1">NOW()</f>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R46" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3252,15 +3258,15 @@
         <v>33</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R47" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3310,15 +3316,15 @@
         <v>37</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R48" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3368,15 +3374,15 @@
         <v>33</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R49" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3426,15 +3432,15 @@
         <v>33</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R50" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3484,15 +3490,15 @@
         <v>33</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R51" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3542,15 +3548,15 @@
         <v>33</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3600,15 +3606,15 @@
         <v>33</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R53" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3658,15 +3664,15 @@
         <v>33</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R54" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -3716,15 +3722,15 @@
         <v>33</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R55" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3774,15 +3780,15 @@
         <v>33</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R56" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3832,15 +3838,15 @@
         <v>33</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R57" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3890,15 +3896,15 @@
         <v>33</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -3948,15 +3954,15 @@
         <v>33</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R59" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4006,15 +4012,15 @@
         <v>33</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R60" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4064,15 +4070,15 @@
         <v>33</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R61" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4122,15 +4128,15 @@
         <v>38</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R62" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4180,15 +4186,15 @@
         <v>39</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4238,15 +4244,15 @@
         <v>33</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R64" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4296,15 +4302,15 @@
         <v>33</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R65" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4354,15 +4360,15 @@
         <v>33</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4412,15 +4418,15 @@
         <v>33</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4470,18 +4476,255 @@
         <v>33</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43071.643110763885</v>
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E69">
+        <v>24</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69">
+        <v>11.12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O69" t="s">
+        <v>33</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R69" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" t="s">
+        <v>33</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70" t="s">
+        <v>33</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R70" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E71">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" t="s">
+        <v>33</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R71" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E72">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" t="s">
+        <v>33</v>
+      </c>
+      <c r="L72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" t="s">
+        <v>33</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
+      </c>
+      <c r="R72" s="6">
+        <f ca="1">NOW()</f>
+        <v>43116.975080902776</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R72" xr:uid="{BCF56FA3-C3D4-4B42-A040-A7ED6307540D}">
+    <sortState ref="A2:R72">
+      <sortCondition ref="A2:A72"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:P44">
     <sortCondition ref="B2:B44"/>
     <sortCondition ref="C2:C44"/>
